--- a/team_specific_matrix/Maine_B.xlsx
+++ b/team_specific_matrix/Maine_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.208955223880597</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="C2">
-        <v>0.5174129353233831</v>
+        <v>0.5244755244755245</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01990049751243781</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1442786069651741</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.109452736318408</v>
+        <v>0.1188811188811189</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="C3">
-        <v>0.02884615384615385</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02884615384615385</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6634615384615384</v>
+        <v>0.6776315789473685</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2788461538461539</v>
+        <v>0.2697368421052632</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09677419354838709</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6774193548387096</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2258064516129032</v>
+        <v>0.2444444444444444</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02777777777777778</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03472222222222222</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02083333333333333</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2291666666666667</v>
+        <v>0.2270531400966184</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02083333333333333</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2222222222222222</v>
+        <v>0.2077294685990338</v>
       </c>
       <c r="R6">
-        <v>0.05555555555555555</v>
+        <v>0.06280193236714976</v>
       </c>
       <c r="S6">
-        <v>0.3888888888888889</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09009009009009009</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05405405405405406</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06306306306306306</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1261261261261261</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01801801801801802</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1621621621621622</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="R7">
-        <v>0.08108108108108109</v>
+        <v>0.09146341463414634</v>
       </c>
       <c r="S7">
-        <v>0.4054054054054054</v>
+        <v>0.4329268292682927</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1027190332326284</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006042296072507553</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08459214501510574</v>
+        <v>0.08436213991769548</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09365558912386707</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01208459214501511</v>
+        <v>0.01440329218106996</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.175226586102719</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="R8">
-        <v>0.04229607250755287</v>
+        <v>0.05967078189300411</v>
       </c>
       <c r="S8">
-        <v>0.4833836858006043</v>
+        <v>0.4753086419753086</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.12</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.22</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R9">
-        <v>0.08</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="S9">
-        <v>0.43</v>
+        <v>0.4275862068965517</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1085972850678733</v>
+        <v>0.1151020408163265</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02036199095022624</v>
+        <v>0.02204081632653061</v>
       </c>
       <c r="E10">
-        <v>0.001131221719457014</v>
+        <v>0.0008163265306122449</v>
       </c>
       <c r="F10">
-        <v>0.07918552036199095</v>
+        <v>0.07836734693877551</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1063348416289593</v>
+        <v>0.1012244897959184</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01357466063348416</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2296380090497737</v>
+        <v>0.2269387755102041</v>
       </c>
       <c r="R10">
-        <v>0.06787330316742081</v>
+        <v>0.06693877551020408</v>
       </c>
       <c r="S10">
-        <v>0.3733031674208145</v>
+        <v>0.3763265306122449</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1657754010695187</v>
+        <v>0.1654135338345865</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0855614973262032</v>
+        <v>0.09398496240601503</v>
       </c>
       <c r="K11">
-        <v>0.2192513368983957</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L11">
-        <v>0.5080213903743316</v>
+        <v>0.5112781954887218</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0213903743315508</v>
+        <v>0.01503759398496241</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7708333333333334</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1875</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K12">
-        <v>0.02083333333333333</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="L12">
-        <v>0.01041666666666667</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01041666666666667</v>
+        <v>0.007246376811594203</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.36</v>
+        <v>0.3125</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02027027027027027</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2432432432432433</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="I15">
-        <v>0.03378378378378379</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="J15">
-        <v>0.3783783783783784</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="K15">
-        <v>0.06756756756756757</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006756756756756757</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04054054054054054</v>
+        <v>0.05392156862745098</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2094594594594595</v>
+        <v>0.2009803921568628</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02564102564102564</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2222222222222222</v>
+        <v>0.244047619047619</v>
       </c>
       <c r="I16">
-        <v>0.04273504273504274</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="J16">
-        <v>0.4615384615384616</v>
+        <v>0.4404761904761905</v>
       </c>
       <c r="K16">
-        <v>0.06837606837606838</v>
+        <v>0.06547619047619048</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06837606837606838</v>
+        <v>0.06547619047619048</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1111111111111111</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.00909090909090909</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1787878787878788</v>
+        <v>0.1894273127753304</v>
       </c>
       <c r="I17">
-        <v>0.07878787878787878</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="J17">
-        <v>0.4848484848484849</v>
+        <v>0.4625550660792951</v>
       </c>
       <c r="K17">
-        <v>0.07575757575757576</v>
+        <v>0.0881057268722467</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01212121212121212</v>
+        <v>0.01101321585903084</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05454545454545454</v>
+        <v>0.05947136563876652</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1060606060606061</v>
+        <v>0.09691629955947137</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01020408163265306</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1938775510204082</v>
+        <v>0.217687074829932</v>
       </c>
       <c r="I18">
-        <v>0.07142857142857142</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="J18">
-        <v>0.4489795918367347</v>
+        <v>0.4557823129251701</v>
       </c>
       <c r="K18">
-        <v>0.1122448979591837</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01020408163265306</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09183673469387756</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06122448979591837</v>
+        <v>0.07482993197278912</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0106508875739645</v>
+        <v>0.01076158940397351</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2236686390532544</v>
+        <v>0.2301324503311258</v>
       </c>
       <c r="I19">
-        <v>0.06745562130177515</v>
+        <v>0.06456953642384106</v>
       </c>
       <c r="J19">
-        <v>0.4071005917159763</v>
+        <v>0.4048013245033112</v>
       </c>
       <c r="K19">
-        <v>0.1041420118343195</v>
+        <v>0.1043046357615894</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02366863905325444</v>
+        <v>0.02152317880794702</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0757396449704142</v>
+        <v>0.07119205298013245</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08757396449704143</v>
+        <v>0.09271523178807947</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Maine_B.xlsx
+++ b/team_specific_matrix/Maine_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2027972027972028</v>
+        <v>0.2087227414330218</v>
       </c>
       <c r="C2">
-        <v>0.5244755244755245</v>
+        <v>0.5171339563862928</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02097902097902098</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1328671328671329</v>
+        <v>0.1339563862928349</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1188811188811189</v>
+        <v>0.1214953271028037</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006578947368421052</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="C3">
-        <v>0.02631578947368421</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01973684210526316</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6776315789473685</v>
+        <v>0.7041420118343196</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2697368421052632</v>
+        <v>0.242603550295858</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6888888888888889</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2444444444444444</v>
+        <v>0.2765957446808511</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03864734299516908</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02415458937198068</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02898550724637681</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2270531400966184</v>
+        <v>0.2198275862068965</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01932367149758454</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2077294685990338</v>
+        <v>0.2025862068965517</v>
       </c>
       <c r="R6">
-        <v>0.06280193236714976</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="S6">
-        <v>0.391304347826087</v>
+        <v>0.3922413793103448</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08536585365853659</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03658536585365853</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06097560975609756</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1158536585365854</v>
+        <v>0.1105263157894737</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02439024390243903</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1524390243902439</v>
+        <v>0.1526315789473684</v>
       </c>
       <c r="R7">
-        <v>0.09146341463414634</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="S7">
-        <v>0.4329268292682927</v>
+        <v>0.4421052631578947</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08641975308641975</v>
+        <v>0.07962962962962963</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00823045267489712</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08436213991769548</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09259259259259259</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01440329218106996</v>
+        <v>0.01296296296296296</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1790123456790123</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="R8">
-        <v>0.05967078189300411</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="S8">
-        <v>0.4753086419753086</v>
+        <v>0.4722222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1241379310344828</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03448275862068965</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05517241379310345</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1103448275862069</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006896551724137931</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1724137931034483</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="R9">
-        <v>0.06896551724137931</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="S9">
-        <v>0.4275862068965517</v>
+        <v>0.4303797468354431</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1151020408163265</v>
+        <v>0.1171702284450995</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02204081632653061</v>
+        <v>0.02137067059690494</v>
       </c>
       <c r="E10">
-        <v>0.0008163265306122449</v>
+        <v>0.001473839351510685</v>
       </c>
       <c r="F10">
-        <v>0.07836734693877551</v>
+        <v>0.079587324981577</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1012244897959184</v>
+        <v>0.1061164333087693</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01224489795918367</v>
+        <v>0.01473839351510685</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2269387755102041</v>
+        <v>0.2225497420781135</v>
       </c>
       <c r="R10">
-        <v>0.06693877551020408</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="S10">
-        <v>0.3763265306122449</v>
+        <v>0.3691967575534267</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1654135338345865</v>
+        <v>0.1622516556291391</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09398496240601503</v>
+        <v>0.08609271523178808</v>
       </c>
       <c r="K11">
-        <v>0.2142857142857143</v>
+        <v>0.2086092715231788</v>
       </c>
       <c r="L11">
-        <v>0.5112781954887218</v>
+        <v>0.5264900662251656</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01503759398496241</v>
+        <v>0.01655629139072848</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7971014492753623</v>
+        <v>0.7901234567901234</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1666666666666667</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="K12">
-        <v>0.01449275362318841</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="L12">
-        <v>0.01449275362318841</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.007246376811594203</v>
+        <v>0.006172839506172839</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.625</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3125</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0625</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01470588235294118</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2352941176470588</v>
+        <v>0.2324561403508772</v>
       </c>
       <c r="I15">
-        <v>0.0392156862745098</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="J15">
-        <v>0.3823529411764706</v>
+        <v>0.3728070175438596</v>
       </c>
       <c r="K15">
-        <v>0.06862745098039216</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004901960784313725</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05392156862745098</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2009803921568628</v>
+        <v>0.206140350877193</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02380952380952381</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.244047619047619</v>
+        <v>0.2287234042553191</v>
       </c>
       <c r="I16">
-        <v>0.05357142857142857</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="J16">
-        <v>0.4404761904761905</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="K16">
-        <v>0.06547619047619048</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06547619047619048</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1071428571428571</v>
+        <v>0.1170212765957447</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.00881057268722467</v>
+        <v>0.007889546351084813</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1894273127753304</v>
+        <v>0.1854043392504931</v>
       </c>
       <c r="I17">
-        <v>0.08370044052863436</v>
+        <v>0.08481262327416174</v>
       </c>
       <c r="J17">
-        <v>0.4625550660792951</v>
+        <v>0.4694280078895464</v>
       </c>
       <c r="K17">
-        <v>0.0881057268722467</v>
+        <v>0.08875739644970414</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01101321585903084</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05947136563876652</v>
+        <v>0.05719921104536489</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09691629955947137</v>
+        <v>0.09467455621301775</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006802721088435374</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.217687074829932</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="I18">
-        <v>0.08843537414965986</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="J18">
-        <v>0.4557823129251701</v>
+        <v>0.4484848484848485</v>
       </c>
       <c r="K18">
-        <v>0.08843537414965986</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006802721088435374</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06122448979591837</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07482993197278912</v>
+        <v>0.07878787878787878</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01076158940397351</v>
+        <v>0.01124437781109445</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2301324503311258</v>
+        <v>0.2353823088455772</v>
       </c>
       <c r="I19">
-        <v>0.06456953642384106</v>
+        <v>0.06371814092953523</v>
       </c>
       <c r="J19">
-        <v>0.4048013245033112</v>
+        <v>0.3980509745127436</v>
       </c>
       <c r="K19">
-        <v>0.1043046357615894</v>
+        <v>0.1079460269865068</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02152317880794702</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007496251874062968</v>
       </c>
       <c r="O19">
-        <v>0.07119205298013245</v>
+        <v>0.06971514242878561</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09271523178807947</v>
+        <v>0.09145427286356822</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Maine_B.xlsx
+++ b/team_specific_matrix/Maine_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2087227414330218</v>
+        <v>0.2095808383233533</v>
       </c>
       <c r="C2">
-        <v>0.5171339563862928</v>
+        <v>0.5149700598802395</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01869158878504673</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1339563862928349</v>
+        <v>0.1377245508982036</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1214953271028037</v>
+        <v>0.1197604790419162</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005917159763313609</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C3">
-        <v>0.02958579881656805</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01775147928994083</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7041420118343196</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.242603550295858</v>
+        <v>0.2342857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06382978723404255</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6595744680851063</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2765957446808511</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04741379310344827</v>
+        <v>0.04621848739495799</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02155172413793104</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03017241379310345</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2198275862068965</v>
+        <v>0.2184873949579832</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02155172413793104</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2025862068965517</v>
+        <v>0.1974789915966386</v>
       </c>
       <c r="R6">
-        <v>0.06465517241379311</v>
+        <v>0.06302521008403361</v>
       </c>
       <c r="S6">
-        <v>0.3922413793103448</v>
+        <v>0.4033613445378151</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08947368421052632</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03157894736842105</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06315789473684211</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1105263157894737</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02631578947368421</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1526315789473684</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="R7">
-        <v>0.08421052631578947</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="S7">
-        <v>0.4421052631578947</v>
+        <v>0.4387755102040816</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07962962962962963</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007407407407407408</v>
+        <v>0.0071301247771836</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07777777777777778</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09444444444444444</v>
+        <v>0.09269162210338681</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01296296296296296</v>
+        <v>0.0124777183600713</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1944444444444444</v>
+        <v>0.1925133689839572</v>
       </c>
       <c r="R8">
-        <v>0.06111111111111111</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="S8">
-        <v>0.4722222222222222</v>
+        <v>0.4759358288770054</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.120253164556962</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03164556962025317</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05696202531645569</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1075949367088608</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006329113924050633</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1772151898734177</v>
+        <v>0.1728395061728395</v>
       </c>
       <c r="R9">
-        <v>0.06962025316455696</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S9">
-        <v>0.4303797468354431</v>
+        <v>0.4382716049382716</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1171702284450995</v>
+        <v>0.1177304964539007</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02137067059690494</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E10">
-        <v>0.001473839351510685</v>
+        <v>0.001418439716312057</v>
       </c>
       <c r="F10">
-        <v>0.079587324981577</v>
+        <v>0.07872340425531915</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1061164333087693</v>
+        <v>0.1092198581560284</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01473839351510685</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2225497420781135</v>
+        <v>0.2205673758865248</v>
       </c>
       <c r="R10">
-        <v>0.06779661016949153</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="S10">
-        <v>0.3691967575534267</v>
+        <v>0.3687943262411347</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1622516556291391</v>
+        <v>0.1698717948717949</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08609271523178808</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K11">
-        <v>0.2086092715231788</v>
+        <v>0.2147435897435897</v>
       </c>
       <c r="L11">
-        <v>0.5264900662251656</v>
+        <v>0.5160256410256411</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01655629139072848</v>
+        <v>0.01602564102564102</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7901234567901234</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1790123456790123</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="K12">
-        <v>0.01234567901234568</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="L12">
-        <v>0.01234567901234568</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006172839506172839</v>
+        <v>0.006097560975609756</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.631578947368421</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3157894736842105</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05263157894736842</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01754385964912281</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2324561403508772</v>
+        <v>0.2317596566523605</v>
       </c>
       <c r="I15">
-        <v>0.03508771929824561</v>
+        <v>0.03433476394849785</v>
       </c>
       <c r="J15">
-        <v>0.3728070175438596</v>
+        <v>0.3733905579399142</v>
       </c>
       <c r="K15">
-        <v>0.06140350877192982</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008771929824561403</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06578947368421052</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.206140350877193</v>
+        <v>0.2103004291845494</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03191489361702127</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2287234042553191</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I16">
-        <v>0.04787234042553191</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="J16">
-        <v>0.4361702127659575</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="K16">
-        <v>0.0797872340425532</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05851063829787234</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1170212765957447</v>
+        <v>0.1161616161616162</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007889546351084813</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1854043392504931</v>
+        <v>0.1865384615384615</v>
       </c>
       <c r="I17">
-        <v>0.08481262327416174</v>
+        <v>0.08269230769230769</v>
       </c>
       <c r="J17">
-        <v>0.4694280078895464</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="K17">
-        <v>0.08875739644970414</v>
+        <v>0.08846153846153847</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01183431952662722</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05719921104536489</v>
+        <v>0.05576923076923077</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09467455621301775</v>
+        <v>0.09615384615384616</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01212121212121212</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2121212121212121</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="I18">
-        <v>0.08484848484848485</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="J18">
-        <v>0.4484848484848485</v>
+        <v>0.4593023255813953</v>
       </c>
       <c r="K18">
-        <v>0.09090909090909091</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01212121212121212</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06060606060606061</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07878787878787878</v>
+        <v>0.08139534883720931</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01124437781109445</v>
+        <v>0.01079136690647482</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2353823088455772</v>
+        <v>0.2366906474820144</v>
       </c>
       <c r="I19">
-        <v>0.06371814092953523</v>
+        <v>0.06330935251798561</v>
       </c>
       <c r="J19">
-        <v>0.3980509745127436</v>
+        <v>0.3956834532374101</v>
       </c>
       <c r="K19">
-        <v>0.1079460269865068</v>
+        <v>0.1064748201438849</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02173913043478261</v>
+        <v>0.02302158273381295</v>
       </c>
       <c r="N19">
-        <v>0.0007496251874062968</v>
+        <v>0.0007194244604316547</v>
       </c>
       <c r="O19">
-        <v>0.06971514242878561</v>
+        <v>0.06978417266187051</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09145427286356822</v>
+        <v>0.09352517985611511</v>
       </c>
     </row>
   </sheetData>
